--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb3-Ephb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb3-Ephb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Efnb3</t>
+  </si>
+  <si>
+    <t>Ephb3</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Efnb3</t>
-  </si>
-  <si>
-    <t>Ephb3</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.1498043333333333</v>
+      </c>
+      <c r="H2">
+        <v>0.449413</v>
+      </c>
+      <c r="I2">
+        <v>0.08722868471333377</v>
+      </c>
+      <c r="J2">
+        <v>0.08722868471333377</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.09174600000000001</v>
-      </c>
-      <c r="H2">
-        <v>0.275238</v>
-      </c>
-      <c r="I2">
-        <v>0.08724331438250914</v>
-      </c>
-      <c r="J2">
-        <v>0.08724331438250914</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.07588399999999999</v>
+        <v>0.01631833333333333</v>
       </c>
       <c r="N2">
-        <v>0.227652</v>
+        <v>0.048955</v>
       </c>
       <c r="O2">
-        <v>0.005197207581907008</v>
+        <v>0.001076315602073535</v>
       </c>
       <c r="P2">
-        <v>0.005197207581907009</v>
+        <v>0.001076315602073535</v>
       </c>
       <c r="Q2">
-        <v>0.006962053464</v>
+        <v>0.002444557046111111</v>
       </c>
       <c r="R2">
-        <v>0.06265848117600001</v>
+        <v>0.022001013415</v>
       </c>
       <c r="S2">
-        <v>0.0004534216149794732</v>
+        <v>9.388559430531441E-05</v>
       </c>
       <c r="T2">
-        <v>0.0004534216149794733</v>
+        <v>9.388559430531438E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.09174600000000001</v>
+        <v>0.1498043333333333</v>
       </c>
       <c r="H3">
-        <v>0.275238</v>
+        <v>0.449413</v>
       </c>
       <c r="I3">
-        <v>0.08724331438250914</v>
+        <v>0.08722868471333377</v>
       </c>
       <c r="J3">
-        <v>0.08724331438250914</v>
+        <v>0.08722868471333377</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>35.15979</v>
       </c>
       <c r="O3">
-        <v>0.8026844796718599</v>
+        <v>0.7730166590262294</v>
       </c>
       <c r="P3">
-        <v>0.8026844796718599</v>
+        <v>0.7730166590262293</v>
       </c>
       <c r="Q3">
-        <v>1.07525669778</v>
+        <v>1.755696300363333</v>
       </c>
       <c r="R3">
-        <v>9.677310280020002</v>
+        <v>15.80126670327</v>
       </c>
       <c r="S3">
-        <v>0.07002885440997283</v>
+        <v>0.0674292264283536</v>
       </c>
       <c r="T3">
-        <v>0.07002885440997283</v>
+        <v>0.06742922642835358</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.09174600000000001</v>
+        <v>0.1498043333333333</v>
       </c>
       <c r="H4">
-        <v>0.275238</v>
+        <v>0.449413</v>
       </c>
       <c r="I4">
-        <v>0.08724331438250914</v>
+        <v>0.08722868471333377</v>
       </c>
       <c r="J4">
-        <v>0.08724331438250914</v>
+        <v>0.08722868471333377</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.805103666666667</v>
+        <v>3.425042</v>
       </c>
       <c r="N4">
-        <v>8.415311000000001</v>
+        <v>10.275126</v>
       </c>
       <c r="O4">
-        <v>0.1921183127462331</v>
+        <v>0.2259070253716972</v>
       </c>
       <c r="P4">
-        <v>0.1921183127462331</v>
+        <v>0.2259070253716972</v>
       </c>
       <c r="Q4">
-        <v>0.2573570410020001</v>
+        <v>0.5130861334486667</v>
       </c>
       <c r="R4">
-        <v>2.316213369018</v>
+        <v>4.617775201038</v>
       </c>
       <c r="S4">
-        <v>0.01676103835755683</v>
+        <v>0.01970557269067486</v>
       </c>
       <c r="T4">
-        <v>0.01676103835755683</v>
+        <v>0.01970557269067486</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1498043333333333</v>
+        <v>1.567570333333333</v>
       </c>
       <c r="H5">
-        <v>0.449413</v>
+        <v>4.702711</v>
       </c>
       <c r="I5">
-        <v>0.1424522763811195</v>
+        <v>0.9127713152866662</v>
       </c>
       <c r="J5">
-        <v>0.1424522763811195</v>
+        <v>0.9127713152866662</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.07588399999999999</v>
+        <v>0.01631833333333333</v>
       </c>
       <c r="N5">
-        <v>0.227652</v>
+        <v>0.048955</v>
       </c>
       <c r="O5">
-        <v>0.005197207581907008</v>
+        <v>0.001076315602073535</v>
       </c>
       <c r="P5">
-        <v>0.005197207581907009</v>
+        <v>0.001076315602073535</v>
       </c>
       <c r="Q5">
-        <v>0.01136775203066666</v>
+        <v>0.02558013522277778</v>
       </c>
       <c r="R5">
-        <v>0.102309768276</v>
+        <v>0.230221217005</v>
       </c>
       <c r="S5">
-        <v>0.000740354050867867</v>
+        <v>0.0009824300077682208</v>
       </c>
       <c r="T5">
-        <v>0.0007403540508678669</v>
+        <v>0.0009824300077682206</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1498043333333333</v>
+        <v>1.567570333333333</v>
       </c>
       <c r="H6">
-        <v>0.449413</v>
+        <v>4.702711</v>
       </c>
       <c r="I6">
-        <v>0.1424522763811195</v>
+        <v>0.9127713152866662</v>
       </c>
       <c r="J6">
-        <v>0.1424522763811195</v>
+        <v>0.9127713152866662</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>35.15979</v>
       </c>
       <c r="O6">
-        <v>0.8026844796718599</v>
+        <v>0.7730166590262294</v>
       </c>
       <c r="P6">
-        <v>0.8026844796718599</v>
+        <v>0.7730166590262293</v>
       </c>
       <c r="Q6">
-        <v>1.755696300363333</v>
+        <v>18.37181457674333</v>
       </c>
       <c r="R6">
-        <v>15.80126670327</v>
+        <v>165.34633119069</v>
       </c>
       <c r="S6">
-        <v>0.1143442313450509</v>
+        <v>0.7055874325978758</v>
       </c>
       <c r="T6">
-        <v>0.1143442313450509</v>
+        <v>0.7055874325978757</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1498043333333333</v>
+        <v>1.567570333333333</v>
       </c>
       <c r="H7">
-        <v>0.449413</v>
+        <v>4.702711</v>
       </c>
       <c r="I7">
-        <v>0.1424522763811195</v>
+        <v>0.9127713152866662</v>
       </c>
       <c r="J7">
-        <v>0.1424522763811195</v>
+        <v>0.9127713152866662</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.805103666666667</v>
+        <v>3.425042</v>
       </c>
       <c r="N7">
-        <v>8.415311000000001</v>
+        <v>10.275126</v>
       </c>
       <c r="O7">
-        <v>0.1921183127462331</v>
+        <v>0.2259070253716972</v>
       </c>
       <c r="P7">
-        <v>0.1921183127462331</v>
+        <v>0.2259070253716972</v>
       </c>
       <c r="Q7">
-        <v>0.4202166847158889</v>
+        <v>5.368994229620666</v>
       </c>
       <c r="R7">
-        <v>3.781950162443</v>
+        <v>48.320948066586</v>
       </c>
       <c r="S7">
-        <v>0.02736769098520075</v>
+        <v>0.2062014526810223</v>
       </c>
       <c r="T7">
-        <v>0.02736769098520075</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.8100603333333333</v>
-      </c>
-      <c r="H8">
-        <v>2.430181</v>
-      </c>
-      <c r="I8">
-        <v>0.7703044092363714</v>
-      </c>
-      <c r="J8">
-        <v>0.7703044092363713</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.07588399999999999</v>
-      </c>
-      <c r="N8">
-        <v>0.227652</v>
-      </c>
-      <c r="O8">
-        <v>0.005197207581907008</v>
-      </c>
-      <c r="P8">
-        <v>0.005197207581907009</v>
-      </c>
-      <c r="Q8">
-        <v>0.06147061833466665</v>
-      </c>
-      <c r="R8">
-        <v>0.5532355650119999</v>
-      </c>
-      <c r="S8">
-        <v>0.004003431916059668</v>
-      </c>
-      <c r="T8">
-        <v>0.004003431916059669</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.8100603333333333</v>
-      </c>
-      <c r="H9">
-        <v>2.430181</v>
-      </c>
-      <c r="I9">
-        <v>0.7703044092363714</v>
-      </c>
-      <c r="J9">
-        <v>0.7703044092363713</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>11.71993</v>
-      </c>
-      <c r="N9">
-        <v>35.15979</v>
-      </c>
-      <c r="O9">
-        <v>0.8026844796718599</v>
-      </c>
-      <c r="P9">
-        <v>0.8026844796718599</v>
-      </c>
-      <c r="Q9">
-        <v>9.493850402443332</v>
-      </c>
-      <c r="R9">
-        <v>85.44465362198999</v>
-      </c>
-      <c r="S9">
-        <v>0.6183113939168362</v>
-      </c>
-      <c r="T9">
-        <v>0.6183113939168361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.8100603333333333</v>
-      </c>
-      <c r="H10">
-        <v>2.430181</v>
-      </c>
-      <c r="I10">
-        <v>0.7703044092363714</v>
-      </c>
-      <c r="J10">
-        <v>0.7703044092363713</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.805103666666667</v>
-      </c>
-      <c r="N10">
-        <v>8.415311000000001</v>
-      </c>
-      <c r="O10">
-        <v>0.1921183127462331</v>
-      </c>
-      <c r="P10">
-        <v>0.1921183127462331</v>
-      </c>
-      <c r="Q10">
-        <v>2.272303211254556</v>
-      </c>
-      <c r="R10">
-        <v>20.450728901291</v>
-      </c>
-      <c r="S10">
-        <v>0.1479895834034755</v>
-      </c>
-      <c r="T10">
-        <v>0.1479895834034755</v>
+        <v>0.2062014526810223</v>
       </c>
     </row>
   </sheetData>
